--- a/lab1/venher_fb-22_zahorodnii_fb-22_cp1/tables/double_bigram_frequencies.xlsx
+++ b/lab1/venher_fb-22_zahorodnii_fb-22_cp1/tables/double_bigram_frequencies.xlsx
@@ -607,85 +607,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003199161945027734</v>
+        <v>0.0003297108242124114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001536852306925088</v>
+        <v>0.001583904939843937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005553055121246669</v>
+        <v>0.005723068767334061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001610558488991903</v>
+        <v>0.001659867727775228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002976475182187568</v>
+        <v>0.003067603648799788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001748561553287217</v>
+        <v>0.001802095926455092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001442759308541919</v>
+        <v>0.001486931168016757</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0048630397997701</v>
+        <v>0.005011927773934743</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00155880733988116</v>
+        <v>0.001606532153270279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008782013182429074</v>
+        <v>0.0009050885370536782</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006192887510252217</v>
+        <v>0.006382490415758884</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01036904842182518</v>
+        <v>0.01068650965535521</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004002088864564106</v>
+        <v>0.004124617761716048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007753263066773096</v>
+        <v>0.007990638798559616</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001593308105954989</v>
+        <v>0.001642089202940245</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002753788419347402</v>
+        <v>0.002838099055475463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003718241652774881</v>
+        <v>0.003832080216704056</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006095658078589609</v>
+        <v>0.006282284184870798</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006755877283911508</v>
+        <v>0.006962716817191511</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0005378983074237807</v>
+        <v>0.0005543667289453779</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0007386300373078739</v>
+        <v>0.0007612441088433615</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001240459362018107</v>
+        <v>0.00127843755858832</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001364348476555945</v>
+        <v>0.0001406119691494107</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001331415927121836</v>
+        <v>0.001372178871354594</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001676423587860121</v>
+        <v>0.001727749368054254</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002650286121125917</v>
+        <v>0.0002731427906465565</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.000345007660738285</v>
+        <v>0.0003555704966996593</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0009487710670302838</v>
+        <v>0.000977818865924063</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003095659646806248</v>
+        <v>0.003190437093114216</v>
       </c>
     </row>
     <row r="3">
@@ -713,103 +713,103 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001226345412260631</v>
+        <v>0.001263891492814243</v>
       </c>
       <c r="C3" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="E3" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>2.822789951495059e-05</v>
+        <v>2.909213154815394e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002375848209175008</v>
+        <v>0.00244858773863629</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0008891788347209436</v>
+        <v>0.0009164021437668492</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000279142561870067</v>
+        <v>0.0002876888564206334</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0009613168001480397</v>
+        <v>0.0009907487021676871</v>
       </c>
       <c r="O3" t="n">
-        <v>7.056974878737649e-05</v>
+        <v>7.273032887038485e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002901200783481033</v>
+        <v>0.0002990024631338044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00258128458897826</v>
+        <v>0.002660313807125633</v>
       </c>
       <c r="R3" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001375325993033982</v>
+        <v>0.001417433298207278</v>
       </c>
       <c r="T3" t="n">
-        <v>7.370618206681544e-05</v>
+        <v>7.596278793129085e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001326711277202678</v>
+        <v>0.001367330182763235</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.116044894905961e-05</v>
+        <v>6.303295168766688e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0002524828789948358</v>
+        <v>0.0002602129544029325</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001097751647803634</v>
+        <v>0.0001131360671317098</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.004238889577161747</v>
+        <v>0.00436866842081445</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.293254943410902e-05</v>
+        <v>3.394082013951293e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.234184927242589e-05</v>
+        <v>4.363819732223091e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0005394665240635002</v>
+        <v>0.0005559829584758309</v>
       </c>
     </row>
     <row r="4">
@@ -819,103 +819,103 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006534758737711062</v>
+        <v>0.006734828453397638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002744379119509085</v>
+        <v>0.0002828401678292744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004641921253569653</v>
+        <v>0.000478403941014087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004281231426434173</v>
+        <v>0.0004412306618136681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007558804203447881</v>
+        <v>0.0007790226336783445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005115522678764936</v>
+        <v>0.005272140728337676</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.331936575046223e-05</v>
+        <v>5.495180403540189e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006649238552410584</v>
+        <v>0.0006852813209120706</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003762151718687026</v>
+        <v>0.003877334643556739</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007715625867419829</v>
+        <v>0.0007951849289828745</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001190276429547083</v>
+        <v>0.001226718213613825</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0004187138428051005</v>
+        <v>0.0004315332846309502</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00188970105086197</v>
+        <v>0.001947556584195861</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.008794558915546829</v>
+        <v>0.009063815206780406</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0009879764830232707</v>
+        <v>0.001018224604185388</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00087036023504431</v>
+        <v>0.0008970073894014133</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004227912060683711</v>
+        <v>0.004357354814101279</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0007464711205064713</v>
+        <v>0.0007693252564956265</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0009989539995013071</v>
+        <v>0.001029538210898559</v>
       </c>
       <c r="W4" t="n">
-        <v>1.725038303691425e-05</v>
+        <v>1.777852483498296e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>9.72294316626076e-05</v>
+        <v>0.0001002062308880858</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.802401566962066e-05</v>
+        <v>5.980049262676088e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0002383689292373606</v>
+        <v>0.0002456668886288555</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001246732228576985</v>
+        <v>0.001284902476710132</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.822789951495059e-05</v>
+        <v>2.909213154815394e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002954520149231496</v>
+        <v>0.003044976435373446</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0002007317298840931</v>
+        <v>0.0002068773798979836</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.000308938678024737</v>
+        <v>0.0003183972174992403</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0002258231961196047</v>
+        <v>0.0002327370523852315</v>
       </c>
     </row>
     <row r="5">
@@ -925,82 +925,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001096183431163915</v>
+        <v>0.001129744441786645</v>
       </c>
       <c r="C5" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001160480313392413</v>
+        <v>0.0001196009852535218</v>
       </c>
       <c r="E5" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001104024514362512</v>
+        <v>0.00113782558943891</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0006319913058069494</v>
+        <v>0.0006513405007725577</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009409299838316864</v>
+        <v>0.0009697377182717981</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001348666310158751</v>
+        <v>0.0001389957396189577</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001855200284788142</v>
+        <v>0.001911999534525895</v>
       </c>
       <c r="O5" t="n">
-        <v>3.763719935326746e-05</v>
+        <v>3.878950873087193e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0004014634597681862</v>
+        <v>0.0004137547597959672</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01053684760227517</v>
+        <v>0.01085944621511369</v>
       </c>
       <c r="R5" t="n">
-        <v>0.000101934081581766</v>
+        <v>0.0001050549194794448</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001508624407410137</v>
+        <v>0.001554812808295783</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0001505487974130698</v>
+        <v>0.0001551580349234877</v>
       </c>
       <c r="U5" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0007699943701022634</v>
+        <v>0.0007935686994524215</v>
       </c>
       <c r="W5" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1031,103 +1031,103 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004786197184423845</v>
+        <v>0.004932732526942546</v>
       </c>
       <c r="C6" t="n">
-        <v>8.31154819051323e-05</v>
+        <v>8.566016511400883e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001058546231810647</v>
+        <v>0.001090954933055773</v>
       </c>
       <c r="E6" t="n">
-        <v>7.527439870653492e-05</v>
+        <v>7.757901746174385e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>6.586509886821805e-05</v>
+        <v>6.788164027902587e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005151591661478484</v>
+        <v>0.005309314007538094</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.175114911074276e-05</v>
+        <v>5.333557450494889e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002937269766194581</v>
+        <v>0.003027197910538463</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002995293781864202</v>
+        <v>0.0003086998403165224</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0008468369854485178</v>
+        <v>0.0008727639464446182</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001725038303691425</v>
+        <v>0.0001777852483498297</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00207161418106943</v>
+        <v>0.002135039209728409</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004185570211411286</v>
+        <v>0.004313716616779048</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0002164138962812879</v>
+        <v>0.0002230396752025136</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00231155132694651</v>
+        <v>0.002382322327887717</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0005018293247102327</v>
+        <v>0.0005171934497449589</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0003622580437751993</v>
+        <v>0.0003733490215346423</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002037113414995601</v>
+        <v>0.002099482160058443</v>
       </c>
       <c r="W6" t="n">
-        <v>2.195503295607268e-05</v>
+        <v>2.262721342634196e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>5.488758239018171e-05</v>
+        <v>5.656803356585489e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0002022999465238126</v>
+        <v>0.0002084936094284366</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.527439870653492e-05</v>
+        <v>7.757901746174385e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001270255478172777</v>
+        <v>0.0001309145919666927</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00021014102972241</v>
+        <v>0.0002165747570807016</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0006806060216382532</v>
+        <v>0.0007014436162166006</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0005096704079088301</v>
+        <v>0.000525274597397224</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.252478174344917e-05</v>
+        <v>9.535754229672681e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0005096704079088301</v>
+        <v>0.000525274597397224</v>
       </c>
     </row>
     <row r="7">
@@ -1137,85 +1137,85 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002148456796415684</v>
+        <v>0.0002214234456720606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002269209477674084</v>
+        <v>0.002338684130565487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003523782789449666</v>
+        <v>0.003631667754927884</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004337687225464074</v>
+        <v>0.004470490881232989</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003813902867797769</v>
+        <v>0.003930670218061688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002109251380422697</v>
+        <v>0.002173828718459281</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001383167076232579</v>
+        <v>0.001425514445859543</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002044954498194198</v>
+        <v>0.002107563307710708</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001466282558137711</v>
+        <v>0.001511174610973552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002954520149231496</v>
+        <v>0.003044976435373446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002087296347466624</v>
+        <v>0.002151201505032939</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007353367823644629</v>
+        <v>0.007578500268294102</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005474644289260696</v>
+        <v>0.005642257290811412</v>
       </c>
       <c r="P7" t="n">
-        <v>0.009716670299701882</v>
+        <v>0.01001415817068677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00168112823777928</v>
+        <v>0.001732598056645613</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003072136397210456</v>
+        <v>0.003166193650157421</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008159431176460442</v>
+        <v>0.008409242246946943</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006131727061303157</v>
+        <v>0.006319457464071218</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005046521146617278</v>
+        <v>0.005201026628997744</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005567169071004145</v>
+        <v>0.0005737614833108139</v>
       </c>
       <c r="W7" t="n">
-        <v>4.704649919158432e-05</v>
+        <v>4.848688591358991e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001249868661856424</v>
+        <v>0.001288134935771038</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003026658114658592</v>
+        <v>0.0003119322993774284</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001607422055712464</v>
+        <v>0.001656635268714322</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0009236796007947722</v>
+        <v>0.0009519591934368151</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0007558804203447881</v>
+        <v>0.0007790226336783445</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0002916882949878228</v>
+        <v>0.0003006186926642574</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0003606898271354798</v>
+        <v>0.0003717327920041893</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0005990587563728404</v>
+        <v>0.0006173996806330447</v>
       </c>
     </row>
     <row r="8">
@@ -1246,28 +1246,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1279,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1349,82 +1349,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001430213575424163</v>
+        <v>0.001474001331773133</v>
       </c>
       <c r="C9" t="n">
-        <v>7.213796542709596e-05</v>
+        <v>7.434655840083785e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.568216639719477e-05</v>
+        <v>1.616229530452997e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007731308033817023</v>
+        <v>0.0007968011585133274</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004220070977485114</v>
+        <v>0.004349273666449015</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001391008159431176</v>
+        <v>0.001433595593511808</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001144798146995218</v>
+        <v>0.0001179847557230688</v>
       </c>
       <c r="N9" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00123105006217979</v>
+        <v>0.001268740181405603</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.527439870653492e-05</v>
+        <v>7.757901746174385e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0002038681631635321</v>
+        <v>0.0002101098389588896</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.213796542709596e-05</v>
+        <v>7.434655840083785e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1455,103 +1455,103 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00609408986194989</v>
+        <v>0.006280667955340345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002148456796415684</v>
+        <v>0.0002214234456720606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009409299838316864</v>
+        <v>0.0009697377182717981</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0005535804738209755</v>
+        <v>0.0005705290242499079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009550439335891617</v>
+        <v>0.000984283784045875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002948247282672618</v>
+        <v>0.0003038511517251634</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002085728130826905</v>
+        <v>0.0002149585275502486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001144798146995218</v>
+        <v>0.0001179847557230688</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004375324424817342</v>
+        <v>0.0004509280389963861</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0003042340281055786</v>
+        <v>0.0003135485289078814</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002603239621934332</v>
+        <v>0.0002682941020551975</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0003465758773780045</v>
+        <v>0.0003571867262301123</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001946156849891871</v>
+        <v>0.002005740847292169</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0007182432209915207</v>
+        <v>0.0007402331249474726</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0002007317298840931</v>
+        <v>0.0002068773798979836</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0002383689292373606</v>
+        <v>0.0002456668886288555</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0003152115445836149</v>
+        <v>0.0003248621356210523</v>
       </c>
       <c r="U10" t="n">
-        <v>8.468369854485178e-05</v>
+        <v>8.727639464446183e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0003606898271354798</v>
+        <v>0.0003717327920041893</v>
       </c>
       <c r="W10" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.763719935326746e-05</v>
+        <v>3.878950873087193e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0005786719400564872</v>
+        <v>0.0005963886967371558</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0009519075003097228</v>
+        <v>0.000981051324984969</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.077363263270641e-05</v>
+        <v>4.202196779177792e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0001113433814200829</v>
+        <v>0.0001147522966621628</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0005771037234167677</v>
+        <v>0.0005947724672067028</v>
       </c>
     </row>
     <row r="11">
@@ -1561,85 +1561,85 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003465758773780045</v>
+        <v>0.0003571867262301123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001331415927121836</v>
+        <v>0.001372178871354594</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004927336681998598</v>
+        <v>0.005078193184683316</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001256141528415301</v>
+        <v>0.001294599853892851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002752220202707683</v>
+        <v>0.002836482825945009</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003326187492845012</v>
+        <v>0.003428022834090806</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005614215570195729</v>
+        <v>0.0005786101719021729</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002548352039544151</v>
+        <v>0.00262637298698612</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001957134366369908</v>
+        <v>0.00201705445400534</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001594876322594709</v>
+        <v>0.001643705432470698</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003230526277822123</v>
+        <v>0.003329432832733173</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005669103152585911</v>
+        <v>0.005842669752587583</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003881336183305707</v>
+        <v>0.004000168087871167</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005548350471327511</v>
+        <v>0.005718220078742703</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001858336718067581</v>
+        <v>0.001915231993586801</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002518555923389481</v>
+        <v>0.002595664625907513</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001311029110805483</v>
+        <v>0.001351167887458705</v>
       </c>
       <c r="T11" t="n">
-        <v>0.005380551290877527</v>
+        <v>0.005545283518984232</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004646625903488811</v>
+        <v>0.00478888809873223</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0004986928914307938</v>
+        <v>0.000513960990684053</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0001395712809350335</v>
+        <v>0.0001438444282103167</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002004180865561492</v>
+        <v>0.00206554133991893</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00141139497574753</v>
+        <v>0.001454606577407697</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001897542134060568</v>
+        <v>0.001955637731848126</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0005865130232550846</v>
+        <v>0.0006044698443894209</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0001568216639719477</v>
+        <v>0.0001616229530452997</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0002383689292373606</v>
+        <v>0.0002456668886288555</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0004045998930476252</v>
+        <v>0.0004169872188568732</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.002022999465238126</v>
+        <v>0.002084936094284366</v>
       </c>
     </row>
     <row r="12">
@@ -1667,85 +1667,85 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001897542134060568</v>
+        <v>0.0001955637731848126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003904859432901499</v>
+        <v>0.0004024411530827962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007151067877120817</v>
+        <v>0.0007370006658865665</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003340301442602487</v>
+        <v>0.0003442568899864883</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007307889541092765</v>
+        <v>0.0007531629611910965</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001223208978981192</v>
+        <v>0.0001260659033753338</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001489805807733504</v>
+        <v>0.0001535418053930347</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000177208480288301</v>
+        <v>0.0001826339369411886</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0006366959557261078</v>
+        <v>0.0006561891893639167</v>
       </c>
       <c r="L12" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0007935176196980556</v>
+        <v>0.0008178121424092164</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0003058022447452981</v>
+        <v>0.0003151647584383344</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00042028205944482</v>
+        <v>0.0004331495141614031</v>
       </c>
       <c r="P12" t="n">
-        <v>0.001094615214524195</v>
+        <v>0.001128128212256192</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0005974905397331209</v>
+        <v>0.0006157834511025918</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0008499734187279568</v>
+        <v>0.0008759964055055243</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0003873495100107109</v>
+        <v>0.0003992086940218902</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001596444539234428</v>
+        <v>0.001645321662001151</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0006225820059686325</v>
+        <v>0.0006416431235898398</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0002571875289139943</v>
+        <v>0.0002650616429942915</v>
       </c>
       <c r="W12" t="n">
-        <v>5.802401566962066e-05</v>
+        <v>5.980049262676088e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>6.272866558877909e-05</v>
+        <v>6.464918121811987e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.586509886821805e-05</v>
+        <v>6.788164027902587e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.000377940210172394</v>
+        <v>0.0003895113168391722</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0001756402636485815</v>
+        <v>0.0001810177074107357</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.095656510372969e-05</v>
+        <v>9.374131276627381e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.468369854485178e-05</v>
+        <v>8.727639464446183e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1773,85 +1773,85 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00834291252330762</v>
+        <v>0.008598341102009943</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004877153749527575</v>
+        <v>0.0005026473839708821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0006414006056452662</v>
+        <v>0.0006610378779552757</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001599580972513867</v>
+        <v>0.0001648554121062057</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002524828789948358</v>
+        <v>0.0002602129544029325</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005959223230934015</v>
+        <v>0.0006141672215721388</v>
       </c>
       <c r="H13" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001646627471705451</v>
+        <v>0.0001697041006975647</v>
       </c>
       <c r="J13" t="n">
-        <v>8.154726526541282e-05</v>
+        <v>8.404393558355584e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003097227863445968</v>
+        <v>0.003192053322644669</v>
       </c>
       <c r="L13" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003795084268121135</v>
+        <v>0.0003911275463696252</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0005065339746293912</v>
+        <v>0.000522042138336318</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002148456796415684</v>
+        <v>0.0002214234456720606</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002628331088169844</v>
+        <v>0.002708800693039223</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01004442757740325</v>
+        <v>0.01035195014255144</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0003669626936943577</v>
+        <v>0.0003781977101260013</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001895973917420848</v>
+        <v>0.001954021502317673</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0006664920718807779</v>
+        <v>0.0006868975504425236</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007778354533008608</v>
+        <v>0.0008016498471046864</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001759539069765254</v>
+        <v>0.001813409533168262</v>
       </c>
       <c r="W13" t="n">
-        <v>2.195503295607268e-05</v>
+        <v>2.262721342634196e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>6.116044894905961e-05</v>
+        <v>6.303295168766688e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.665968287523112e-05</v>
+        <v>2.747590201770095e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0001630945305308256</v>
+        <v>0.0001680878711671117</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0001066387315009245</v>
+        <v>0.0001099036080708038</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.154726526541282e-05</v>
+        <v>8.404393558355584e-05</v>
       </c>
     </row>
     <row r="14">
@@ -1879,103 +1879,103 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008021428112165127</v>
+        <v>0.008267014048267079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003246208444219318</v>
+        <v>0.0003345595128037703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000795085836337775</v>
+        <v>0.0008194283719396694</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003857812933709914</v>
+        <v>0.0003975924644914372</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0006335595224466688</v>
+        <v>0.0006529567303030107</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004872449099608416</v>
+        <v>0.005021625151117461</v>
       </c>
       <c r="H14" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004296913592831368</v>
+        <v>0.0004428468913441211</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001458441474939114</v>
+        <v>0.0001503093463321287</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007224774059187632</v>
+        <v>0.007445969446796956</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001422372492225566</v>
+        <v>0.001465920184120868</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0001819131302074594</v>
+        <v>0.0001874826255325476</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001505487974130698</v>
+        <v>0.0001551580349234877</v>
       </c>
       <c r="P14" t="n">
-        <v>0.001052273365251769</v>
+        <v>0.001084490014933961</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.007637215035433855</v>
+        <v>0.007871037813306095</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0008860424014415047</v>
+        <v>0.0009131696847059432</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0002869836450686644</v>
+        <v>0.0002957700040728984</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002258231961196048</v>
+        <v>0.002327370523852315</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0003842130767312719</v>
+        <v>0.0003959762349609842</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00149921510757182</v>
+        <v>0.001545115431113065</v>
       </c>
       <c r="W14" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>2.822789951495059e-05</v>
+        <v>2.909213154815394e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0006617874219616195</v>
+        <v>0.0006820488618511646</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.645579902990118e-05</v>
+        <v>5.818426309630789e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.00129064229448913</v>
+        <v>0.001330156903562816</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.003967588098490278</v>
+        <v>0.004089060712046082</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.72294316626076e-05</v>
+        <v>0.0001002062308880858</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001204390379304559</v>
+        <v>0.001241264279387902</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.002073182397709149</v>
+        <v>0.002136655439258862</v>
       </c>
     </row>
     <row r="15">
@@ -1985,103 +1985,103 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003428121574426778</v>
+        <v>0.003533077753570251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003434394440985656</v>
+        <v>0.0003539542671692063</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007935176196980556</v>
+        <v>0.0008178121424092164</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000348144094017724</v>
+        <v>0.0003588029557605653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0004061681096873446</v>
+        <v>0.0004186034483873262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003434394440985655</v>
+        <v>0.003539542671692063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001129115980598024</v>
+        <v>0.0001163685261926158</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001913224300457762</v>
+        <v>0.0001971800027152656</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004541555388627607</v>
+        <v>0.004680600720191878</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0006586509886821805</v>
+        <v>0.0006788164027902587</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0002963929449069812</v>
+        <v>0.0003054673812556164</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0002948247282672618</v>
+        <v>0.0003038511517251634</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002137479279937648</v>
+        <v>0.002202920850007435</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004630943737091617</v>
+        <v>0.0047727258034277</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00104913693197233</v>
+        <v>0.001081257555873055</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0002383689292373606</v>
+        <v>0.0002456668886288555</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00105070514861205</v>
+        <v>0.001082873785403508</v>
       </c>
       <c r="U15" t="n">
-        <v>0.000312075111304176</v>
+        <v>0.0003216296765601464</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002816517084936182</v>
+        <v>0.002902748236693582</v>
       </c>
       <c r="W15" t="n">
-        <v>4.704649919158432e-05</v>
+        <v>4.848688591358991e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>7.684261534625439e-05</v>
+        <v>7.919524699219684e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0004485099589597705</v>
+        <v>0.0004622416457095571</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.86147158313038e-05</v>
+        <v>5.01031154440429e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0008201773025732867</v>
+        <v>0.0008452880444269174</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.077363263270641e-05</v>
+        <v>4.202196779177792e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.370618206681544e-05</v>
+        <v>7.596278793129085e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.136433279438955e-05</v>
+        <v>3.232459060905993e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0005598533403798534</v>
+        <v>0.0005769939423717199</v>
       </c>
     </row>
     <row r="16">
@@ -2091,103 +2091,103 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0123591153376292</v>
+        <v>0.01273750492950007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000377940210172394</v>
+        <v>0.0003895113168391722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005284890075854639</v>
+        <v>0.0005446693517626599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002838472117892254</v>
+        <v>0.0002925375450119924</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00140982675910781</v>
+        <v>0.001452990347877244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01043961817061256</v>
+        <v>0.0107592399842256</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.331936575046223e-05</v>
+        <v>5.495180403540189e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001960270799649347</v>
+        <v>0.0002020286913066246</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008560894636228627</v>
+        <v>0.008822997006742909</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0004814425083938796</v>
+        <v>0.00049618246584907</v>
       </c>
       <c r="N16" t="n">
-        <v>4.234184927242589e-05</v>
+        <v>4.363819732223091e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001144798146995218</v>
+        <v>0.0001179847557230688</v>
       </c>
       <c r="P16" t="n">
-        <v>0.003649240120627224</v>
+        <v>0.003760966117364124</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.009925243112784572</v>
+        <v>0.01022911669823702</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0006068998395714378</v>
+        <v>0.0006254808282853098</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0002007317298840931</v>
+        <v>0.0002068773798979836</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00126084617833446</v>
+        <v>0.001299448542484209</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0007307889541092765</v>
+        <v>0.0007531629611910965</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002879245750524961</v>
+        <v>0.002967397417911702</v>
       </c>
       <c r="W16" t="n">
-        <v>2.979611615467007e-05</v>
+        <v>3.070836107860694e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>7.056974878737649e-05</v>
+        <v>7.273032887038485e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.000594354106453682</v>
+        <v>0.0006125509920416858</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0003763719935326746</v>
+        <v>0.0003878950873087193</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.331936575046223e-05</v>
+        <v>5.495180403540189e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0001474123641336309</v>
+        <v>0.0001519255758625817</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003506532406412752</v>
+        <v>0.003613889230092901</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00117145782987045</v>
+        <v>0.001207323459248389</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.000174072047008862</v>
+        <v>0.0001794014778802826</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.00339048437507351</v>
+        <v>0.003494288244839379</v>
       </c>
     </row>
     <row r="17">
@@ -2197,85 +2197,85 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000207004596442971</v>
+        <v>0.0002133422980197956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005073180829492509</v>
+        <v>0.005228502531015445</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01122999935703118</v>
+        <v>0.01157381966757391</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005780446534005994</v>
+        <v>0.005957422049249746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006081544128832134</v>
+        <v>0.006267738119096721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003239935577660441</v>
+        <v>0.003339130209915892</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002313119543586229</v>
+        <v>0.00238393855741817</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001563511989800319</v>
+        <v>0.001611380841861638</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002333506359902583</v>
+        <v>0.002404949541314059</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004337687225464074</v>
+        <v>0.004470490881232989</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002866700017407205</v>
+        <v>0.002954467581668078</v>
       </c>
       <c r="N17" t="n">
-        <v>0.008170408692938478</v>
+        <v>0.008420555853660113</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006628851736094231</v>
+        <v>0.006831802225224818</v>
       </c>
       <c r="P17" t="n">
-        <v>0.009987971778373352</v>
+        <v>0.01029376587945514</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00228175521079184</v>
+        <v>0.00235161396680911</v>
       </c>
       <c r="R17" t="n">
-        <v>0.003377938641955754</v>
+        <v>0.003481358408595755</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00744275617210864</v>
+        <v>0.007670625351529923</v>
       </c>
       <c r="T17" t="n">
-        <v>0.009740193549297674</v>
+        <v>0.01003840161364356</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008840037198098694</v>
+        <v>0.009110685863163543</v>
       </c>
       <c r="V17" t="n">
-        <v>0.000558285123740134</v>
+        <v>0.0005753777128412669</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0004516463922392095</v>
+        <v>0.0004654741047704631</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0008389959022499204</v>
+        <v>0.0008646827987923533</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0001364348476555945</v>
+        <v>0.0001406119691494107</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.002686355103839465</v>
+        <v>0.002768601185665983</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001420804275585847</v>
+        <v>0.001464303954590415</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001850495634868983</v>
+        <v>0.0001907150845934536</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.000381076643451833</v>
+        <v>0.0003927437759000782</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.0006680602885204974</v>
+        <v>0.0006885137799729767</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.001052273365251769</v>
+        <v>0.001084490014933961</v>
       </c>
     </row>
     <row r="18">
@@ -2303,67 +2303,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001253005095135862</v>
+        <v>0.001291367394831944</v>
       </c>
       <c r="C18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>1.41139497574753e-05</v>
+        <v>1.454606577407697e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002814948868296462</v>
+        <v>0.002901132007163129</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0009079974343975774</v>
+        <v>0.0009357968981322851</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>8.625191518457126e-05</v>
+        <v>8.889262417491483e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0006994246213148869</v>
+        <v>0.0007208383705820365</v>
       </c>
       <c r="O18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>5.488758239018171e-05</v>
+        <v>5.656803356585489e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.009492415320221997</v>
+        <v>0.00978303734783199</v>
       </c>
       <c r="R18" t="n">
-        <v>5.959223230934014e-05</v>
+        <v>6.141672215721388e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006909562514604018</v>
+        <v>0.007121107311175904</v>
       </c>
       <c r="T18" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="U18" t="n">
-        <v>5.018293247102328e-05</v>
+        <v>5.17193449744959e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0007386300373078739</v>
+        <v>0.0007612441088433615</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2372,34 +2372,34 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.665968287523112e-05</v>
+        <v>2.747590201770095e-05</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0002038681631635321</v>
+        <v>0.0002101098389588896</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0008217455192130062</v>
+        <v>0.0008469042739573703</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0004108727596065031</v>
+        <v>0.0004234521369786852</v>
       </c>
     </row>
     <row r="19">
@@ -2409,103 +2409,103 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009504961053339752</v>
+        <v>0.009795967184075613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002368007125976411</v>
+        <v>0.0002440506590984025</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004986928914307938</v>
+        <v>0.000513960990684053</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003998952431284667</v>
+        <v>0.0004121385302655142</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0004798742917541601</v>
+        <v>0.000494566236318617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006925244681001213</v>
+        <v>0.007137269606480434</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003951905932093083</v>
+        <v>0.0004072898416741552</v>
       </c>
       <c r="J19" t="n">
-        <v>8.31154819051323e-05</v>
+        <v>8.566016511400883e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006175637127215302</v>
+        <v>0.006364711890923902</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003857812933709914</v>
+        <v>0.0003975924644914372</v>
       </c>
       <c r="N19" t="n">
-        <v>9.72294316626076e-05</v>
+        <v>0.0001002062308880858</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002681650453920306</v>
+        <v>0.0002763752497074625</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0008358594689704815</v>
+        <v>0.0008614503397314473</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007809718865802997</v>
+        <v>0.008048823061655924</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0002242549794798853</v>
+        <v>0.0002311208228547785</v>
       </c>
       <c r="S19" t="n">
-        <v>7.997904862569334e-05</v>
+        <v>8.242770605310284e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0004924200248719159</v>
+        <v>0.000507496072562241</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0006868788881971311</v>
+        <v>0.0007079085343384126</v>
       </c>
       <c r="V19" t="n">
-        <v>0.003327755709484731</v>
+        <v>0.003429639063621259</v>
       </c>
       <c r="W19" t="n">
-        <v>4.077363263270641e-05</v>
+        <v>4.202196779177792e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.252478174344917e-05</v>
+        <v>9.535754229672681e-05</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0002901200783481033</v>
+        <v>0.0002990024631338044</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.743331550793753e-05</v>
+        <v>6.949786980947887e-05</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.001692105754257316</v>
+        <v>0.001743911663358784</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.001030318332295697</v>
+        <v>0.001061862801507619</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0001960270799649347</v>
+        <v>0.0002020286913066246</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.001064819098369525</v>
+        <v>0.001097419851177585</v>
       </c>
     </row>
     <row r="20">
@@ -2515,103 +2515,103 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001751697986566656</v>
+        <v>0.001805328385515998</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002132774630018489</v>
+        <v>0.0002198072161416076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002292732727269876</v>
+        <v>0.002362927573522281</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0001458441474939114</v>
+        <v>0.0001503093463321287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005300572242251834</v>
+        <v>0.0005462855812931129</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004025612114159898</v>
+        <v>0.004148861204672843</v>
       </c>
       <c r="H20" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001113433814200829</v>
+        <v>0.0001147522966621628</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000101934081581766</v>
+        <v>0.0001050549194794448</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001819131302074594</v>
+        <v>0.001874826255325476</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00546209855614294</v>
+        <v>0.005629327454567788</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002717719436633854</v>
+        <v>0.002800925776275043</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001146366363634938</v>
+        <v>0.001181463786761141</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001370621343114823</v>
+        <v>0.001412584609615919</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.003435962657625375</v>
+        <v>0.003541158901222516</v>
       </c>
       <c r="R20" t="n">
-        <v>0.002278618777512401</v>
+        <v>0.002348381507748204</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0003716673436135162</v>
+        <v>0.0003830463987173602</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001298483377687727</v>
+        <v>0.001338238051215081</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01315890582388613</v>
+        <v>0.0135617819900311</v>
       </c>
       <c r="V20" t="n">
-        <v>0.001000522216141027</v>
+        <v>0.001031154440429012</v>
       </c>
       <c r="W20" t="n">
-        <v>4.86147158313038e-05</v>
+        <v>5.01031154440429e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0002305278460387632</v>
+        <v>0.0002375857409765905</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.293254943410902e-05</v>
+        <v>3.394082013951293e-05</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0004626239087172458</v>
+        <v>0.0004767877114836341</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.822789951495059e-05</v>
+        <v>2.909213154815394e-05</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0004547828255186484</v>
+        <v>0.0004687065638313691</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.003398325458272108</v>
+        <v>0.003502369392491644</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.586509886821805e-05</v>
+        <v>6.788164027902587e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0001191844646186803</v>
+        <v>0.0001228334443144278</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.003515941706251068</v>
+        <v>0.003623586607275619</v>
       </c>
     </row>
     <row r="21">
@@ -2621,103 +2621,103 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00660376026985872</v>
+        <v>0.00680594255273757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002618921788331527</v>
+        <v>0.0002699103315856505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003189752645189417</v>
+        <v>0.003287410864941396</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000138003064295314</v>
+        <v>0.0001422281986798637</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0004045998930476252</v>
+        <v>0.0004169872188568732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005267639692817724</v>
+        <v>0.005428914992791616</v>
       </c>
       <c r="H21" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="I21" t="n">
-        <v>7.213796542709596e-05</v>
+        <v>7.434655840083785e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001427077142144724</v>
+        <v>0.0001470768872712227</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004067953963432324</v>
+        <v>0.004192499401995074</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0007449029038667518</v>
+        <v>0.0007677090269651735</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0003998952431284667</v>
+        <v>0.0004121385302655142</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0002352324959579216</v>
+        <v>0.0002424344295679495</v>
       </c>
       <c r="P21" t="n">
-        <v>0.001598012755874148</v>
+        <v>0.001646937891531604</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01606481125728633</v>
+        <v>0.0165566553099605</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0005347618741443418</v>
+        <v>0.0005511342698844719</v>
       </c>
       <c r="S21" t="n">
-        <v>0.003294823160050622</v>
+        <v>0.003395698243481746</v>
       </c>
       <c r="T21" t="n">
-        <v>0.001477260074615748</v>
+        <v>0.001522488217686723</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003230526277822123</v>
+        <v>0.0003329432832733173</v>
       </c>
       <c r="V21" t="n">
-        <v>0.001761107286404973</v>
+        <v>0.001815025762698715</v>
       </c>
       <c r="W21" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="X21" t="n">
-        <v>5.018293247102328e-05</v>
+        <v>5.17193449744959e-05</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0001615263138911062</v>
+        <v>0.0001664716416366587</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0004218502760845394</v>
+        <v>0.0004347657436918561</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.802401566962066e-05</v>
+        <v>5.980049262676088e-05</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.001695242187536755</v>
+        <v>0.00174714412241969</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.006164659610737266</v>
+        <v>0.00635339828421073</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0001097751647803634</v>
+        <v>0.0001131360671317098</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.31154819051323e-05</v>
+        <v>8.566016511400883e-05</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0005849448066153651</v>
+        <v>0.0006028536148589678</v>
       </c>
     </row>
     <row r="22">
@@ -2727,85 +2727,85 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001662309638102646</v>
+        <v>0.0001713203302280177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009111338676770163</v>
+        <v>0.0009390293571931911</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00161996778883022</v>
+        <v>0.001669565104957946</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001594876322594709</v>
+        <v>0.001643705432470698</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002269209477674084</v>
+        <v>0.002338684130565487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003355983608999682</v>
+        <v>0.0003458731195169413</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001525874790447052</v>
+        <v>0.001572591333130766</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0009472028503905644</v>
+        <v>0.00097620263639361</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006366959557261078</v>
+        <v>0.0006561891893639167</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000101934081581766</v>
+        <v>0.0001050549194794448</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001561943773160599</v>
+        <v>0.001609764612331185</v>
       </c>
       <c r="N22" t="n">
-        <v>0.001554102689962002</v>
+        <v>0.00160168346467892</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001475691857976028</v>
+        <v>0.00152087198815627</v>
       </c>
       <c r="P22" t="n">
-        <v>0.001149502796914377</v>
+        <v>0.001184696245822047</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0004249867093639784</v>
+        <v>0.0004379982027527622</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001246732228576985</v>
+        <v>0.001284902476710132</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0009221113841550527</v>
+        <v>0.0009503429639063621</v>
       </c>
       <c r="T22" t="n">
-        <v>0.002206480812085305</v>
+        <v>0.002274034949347367</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001811290218875996</v>
+        <v>0.001866745107673211</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0001317301977364361</v>
+        <v>0.0001357632805580517</v>
       </c>
       <c r="W22" t="n">
-        <v>5.802401566962066e-05</v>
+        <v>5.980049262676088e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0004406688757611732</v>
+        <v>0.0004541604980572921</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.001226345412260631</v>
+        <v>0.001263891492814243</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0008609509352059931</v>
+        <v>0.0008873100122186952</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0002415053625167995</v>
+        <v>0.0002488993476897615</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.0001223208978981192</v>
+        <v>0.0001260659033753338</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.00108050126476672</v>
+        <v>0.001113582146482115</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.0001662309638102646</v>
+        <v>0.0001713203302280177</v>
       </c>
     </row>
     <row r="23">
@@ -2833,82 +2833,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001944588633252152</v>
+        <v>0.0002004124617761716</v>
       </c>
       <c r="C23" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001960270799649347</v>
+        <v>0.0002020286913066246</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006304230891672299</v>
+        <v>0.0006497242712421047</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.41139497574753e-05</v>
+        <v>1.454606577407697e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>7.370618206681544e-05</v>
+        <v>7.596278793129085e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="P23" t="n">
-        <v>1.725038303691425e-05</v>
+        <v>1.777852483498296e-05</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.684261534625439e-05</v>
+        <v>7.919524699219684e-05</v>
       </c>
       <c r="R23" t="n">
-        <v>2.195503295607268e-05</v>
+        <v>2.262721342634196e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0004814425083938796</v>
+        <v>0.00049618246584907</v>
       </c>
       <c r="T23" t="n">
-        <v>3.45007660738285e-05</v>
+        <v>3.555704966996593e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="V23" t="n">
-        <v>9.252478174344917e-05</v>
+        <v>9.535754229672681e-05</v>
       </c>
       <c r="W23" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="X23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.568216639719477e-05</v>
+        <v>1.616229530452997e-05</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -2939,85 +2939,85 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00105070514861205</v>
+        <v>0.001082873785403508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001913224300457762</v>
+        <v>0.0001971800027152656</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004406688757611732</v>
+        <v>0.0004541604980572921</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000174072047008862</v>
+        <v>0.0001794014778802826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0001850495634868983</v>
+        <v>0.0001907150845934536</v>
       </c>
       <c r="G24" t="n">
-        <v>9.879764830232707e-05</v>
+        <v>0.0001018224604185388</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.234184927242589e-05</v>
+        <v>4.363819732223091e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.997904862569334e-05</v>
+        <v>8.242770605310284e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004971246747910743</v>
+        <v>0.0005123447611536</v>
       </c>
       <c r="L24" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0002226867628401658</v>
+        <v>0.0002295045933243255</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00023993714587708</v>
+        <v>0.0002472831181593085</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0001897542134060568</v>
+        <v>0.0001955637731848126</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0003748037768929551</v>
+        <v>0.0003862788577782662</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.002915314733238509</v>
+        <v>0.003004570697112121</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0003998952431284667</v>
+        <v>0.0004121385302655142</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0002195503295607268</v>
+        <v>0.0002262721342634195</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0004422370924008926</v>
+        <v>0.0004557767275877451</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0001552534473322283</v>
+        <v>0.0001600067235148467</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0002038681631635321</v>
+        <v>0.0002101098389588896</v>
       </c>
       <c r="W24" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.684261534625439e-05</v>
+        <v>7.919524699219684e-05</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
     </row>
     <row r="25">
@@ -3045,79 +3045,79 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000732357170748996</v>
+        <v>0.0007547791907215495</v>
       </c>
       <c r="C25" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>4.86147158313038e-05</v>
+        <v>5.01031154440429e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>1.41139497574753e-05</v>
+        <v>1.454606577407697e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001035022982214855</v>
+        <v>0.001066711490098978</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003010975948261397</v>
+        <v>0.0003103160698469754</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001615263138911062</v>
+        <v>0.0001664716416366587</v>
       </c>
       <c r="N25" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="O25" t="n">
-        <v>2.195503295607268e-05</v>
+        <v>2.262721342634196e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0004108727596065031</v>
+        <v>0.0004234521369786852</v>
       </c>
       <c r="R25" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="S25" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="T25" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
       <c r="U25" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0004296913592831368</v>
+        <v>0.0004428468913441211</v>
       </c>
       <c r="W25" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="X25" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3129,19 +3129,19 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0001693673970897036</v>
+        <v>0.0001745527892889237</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
     </row>
     <row r="26">
@@ -3151,22 +3151,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00234134744310118</v>
+        <v>0.002413030688966324</v>
       </c>
       <c r="C26" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>7.841083198597387e-06</v>
+        <v>8.081147652264983e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003561419988802933</v>
+        <v>0.003670457263658756</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3175,58 +3175,58 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001555670906601722</v>
+        <v>0.001603299694209373</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0002838472117892254</v>
+        <v>0.0002925375450119924</v>
       </c>
       <c r="N26" t="n">
-        <v>5.018293247102328e-05</v>
+        <v>5.17193449744959e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>4.704649919158433e-06</v>
+        <v>4.848688591358991e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0005567169071004145</v>
+        <v>0.0005737614833108139</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.547828255186485e-05</v>
+        <v>4.687065638313691e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41139497574753e-05</v>
+        <v>1.454606577407697e-05</v>
       </c>
       <c r="S26" t="n">
-        <v>4.391006591214537e-05</v>
+        <v>4.525442685268391e-05</v>
       </c>
       <c r="T26" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="U26" t="n">
-        <v>0.003893881916423462</v>
+        <v>0.004013097924114791</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0007009928379546064</v>
+        <v>0.0007224546001124896</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.566121502288812e-05</v>
+        <v>9.85900013576328e-05</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0001928906466854957</v>
+        <v>0.0001987962322457186</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
     </row>
     <row r="27">
@@ -3257,82 +3257,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001677991804499841</v>
+        <v>0.001729365597584707</v>
       </c>
       <c r="C27" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>3.920541599298693e-05</v>
+        <v>4.040573826132492e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002516987706749761</v>
+        <v>0.00259404839637706</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="J27" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002121797113540453</v>
+        <v>0.002186758554702905</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0005708308568578898</v>
+        <v>0.0005883075490848909</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0005363300907840613</v>
+        <v>0.000552750499414925</v>
       </c>
       <c r="O27" t="n">
-        <v>2.665968287523112e-05</v>
+        <v>2.747590201770095e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0004265549260036979</v>
+        <v>0.0004396144322832151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0002854154284289449</v>
+        <v>0.0002941537745424454</v>
       </c>
       <c r="R27" t="n">
-        <v>5.959223230934014e-05</v>
+        <v>6.141672215721388e-05</v>
       </c>
       <c r="S27" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="T27" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="V27" t="n">
-        <v>0.000417145626165381</v>
+        <v>0.0004299170551004972</v>
       </c>
       <c r="W27" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0004014634597681862</v>
+        <v>0.0004137547597959672</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0004014634597681862</v>
+        <v>0.0004137547597959672</v>
       </c>
       <c r="C28" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001444327525181639</v>
+        <v>0.00148854739754721</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0007480393371461907</v>
+        <v>0.0007709414860260794</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>3.920541599298693e-05</v>
+        <v>4.040573826132492e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0001003658649420466</v>
+        <v>0.0001034386899489918</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0002007317298840931</v>
+        <v>0.0002068773798979836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.000101934081581766</v>
+        <v>0.0001050549194794448</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0001082069481406439</v>
+        <v>0.0001115198376012568</v>
       </c>
     </row>
     <row r="30">
@@ -3575,85 +3575,85 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.743331550793753e-05</v>
+        <v>6.949786980947887e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007511757704256296</v>
+        <v>0.0007741739450869855</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001640354605146573</v>
+        <v>0.001690576088853835</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0002258231961196047</v>
+        <v>0.0002327370523852315</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0003403030108191266</v>
+        <v>0.0003507218081083003</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001215367895782595</v>
+        <v>0.001252577886101072</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.409299838316864e-05</v>
+        <v>9.697377182717981e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0002226867628401658</v>
+        <v>0.0002295045933243255</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0004814425083938796</v>
+        <v>0.00049618246584907</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001706219704014791</v>
+        <v>0.001758457729132861</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0004453735256803316</v>
+        <v>0.0004590091866486511</v>
       </c>
       <c r="N30" t="n">
-        <v>0.002716151219994135</v>
+        <v>0.00279930954674459</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00191949716701664</v>
+        <v>0.001978264945274468</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0008860424014415047</v>
+        <v>0.0009131696847059432</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0002979611615467007</v>
+        <v>0.0003070836107860694</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0005598533403798534</v>
+        <v>0.0005769939423717199</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0004249867093639784</v>
+        <v>0.0004379982027527622</v>
       </c>
       <c r="T30" t="n">
-        <v>0.001254573311775582</v>
+        <v>0.001292983624362397</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0009440664171111254</v>
+        <v>0.0009729701773327041</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0001223208978981192</v>
+        <v>0.0001260659033753338</v>
       </c>
       <c r="W30" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="X30" t="n">
-        <v>0.001146366363634938</v>
+        <v>0.001181463786761141</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.097751647803634e-05</v>
+        <v>1.131360671317098e-05</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0002446417957962385</v>
+        <v>0.0002521318067506675</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0005927858898139625</v>
+        <v>0.0006109347625112328</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -3665,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.586509886821805e-05</v>
+        <v>6.788164027902587e-05</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.331936575046223e-05</v>
+        <v>5.495180403540189e-05</v>
       </c>
     </row>
     <row r="31">
@@ -3681,85 +3681,85 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005880812398948041</v>
+        <v>0.0006060860739198738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000522216141026586</v>
+        <v>0.000538204433640848</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001306324460886325</v>
+        <v>0.001346319198867346</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0002932565116275423</v>
+        <v>0.0003022349221947104</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000446941742320051</v>
+        <v>0.0004606254161791041</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001897542134060568</v>
+        <v>0.001955637731848126</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.272866558877909e-05</v>
+        <v>6.464918121811987e-05</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0004610556920775263</v>
+        <v>0.0004751714819531811</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001091478781244756</v>
+        <v>0.001124895753195286</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001982225832605419</v>
+        <v>0.002042914126492588</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0001630945305308256</v>
+        <v>0.0001680878711671117</v>
       </c>
       <c r="O31" t="n">
-        <v>0.000732357170748996</v>
+        <v>0.0007547791907215495</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002203344378805866</v>
+        <v>0.00227080249028646</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0008687920184045905</v>
+        <v>0.0008953911598709603</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0009769989665452344</v>
+        <v>0.001006910997472217</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0002352324959579216</v>
+        <v>0.0002424344295679495</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002093569214025502</v>
+        <v>0.002157666423154751</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0005896494565345235</v>
+        <v>0.0006077023034503268</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0002164138962812879</v>
+        <v>0.0002230396752025136</v>
       </c>
       <c r="W31" t="n">
-        <v>2.195503295607268e-05</v>
+        <v>2.262721342634196e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>9.879764830232707e-05</v>
+        <v>0.0001018224604185388</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0001082069481406439</v>
+        <v>0.0001115198376012568</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0004688967752761237</v>
+        <v>0.0004832526296054461</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0005018293247102327</v>
+        <v>0.0005171934497449589</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.725038303691425e-05</v>
+        <v>1.777852483498296e-05</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3771,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.0002038681631635321</v>
+        <v>0.0002101098389588896</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0004249867093639784</v>
+        <v>0.0004379982027527622</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.0006555145554027415</v>
+        <v>0.0006755839437293527</v>
       </c>
     </row>
     <row r="32">
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3.136433279438955e-06</v>
+        <v>3.232459060905994e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3811,49 +3811,49 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.27286655887791e-06</v>
+        <v>6.464918121811988e-06</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.254573311775582e-05</v>
+        <v>1.292983624362398e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>5.645579902990118e-05</v>
+        <v>5.818426309630789e-05</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0001238891145378387</v>
+        <v>0.0001276821329057867</v>
       </c>
       <c r="O32" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="P32" t="n">
-        <v>5.018293247102328e-05</v>
+        <v>5.17193449744959e-05</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.352324959579216e-05</v>
+        <v>2.424344295679495e-05</v>
       </c>
       <c r="S32" t="n">
-        <v>4.391006591214537e-05</v>
+        <v>4.525442685268391e-05</v>
       </c>
       <c r="T32" t="n">
-        <v>4.704649919158432e-05</v>
+        <v>4.848688591358991e-05</v>
       </c>
       <c r="U32" t="n">
-        <v>0.002596966755375454</v>
+        <v>0.002676476102430163</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="X32" t="n">
-        <v>9.409299838316865e-06</v>
+        <v>9.697377182717982e-06</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.568216639719477e-06</v>
+        <v>1.616229530452997e-06</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -3893,85 +3893,85 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0001332984143761556</v>
+        <v>0.0001373795100885047</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0006084680562111573</v>
+        <v>0.0006270970578157628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0003167797612233344</v>
+        <v>0.0003264783651515053</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001254573311775582</v>
+        <v>0.0001292983624362397</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0005629897736592924</v>
+        <v>0.0005802264014326258</v>
       </c>
       <c r="G33" t="n">
-        <v>9.409299838316864e-05</v>
+        <v>9.697377182717981e-05</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.095656510372969e-05</v>
+        <v>9.374131276627381e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0001348666310158751</v>
+        <v>0.0001389957396189577</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003497123106574435</v>
+        <v>0.0003604191852910183</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002869836450686644</v>
+        <v>0.0002957700040728984</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0001348666310158751</v>
+        <v>0.0001389957396189577</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0001944588633252152</v>
+        <v>0.0002004124617761716</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0003622580437751993</v>
+        <v>0.0003733490215346423</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0002477782290756774</v>
+        <v>0.0002553642658115735</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0002728696953111891</v>
+        <v>0.0002812239382988214</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0001913224300457762</v>
+        <v>0.0001971800027152656</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0005347618741443418</v>
+        <v>0.0005511342698844719</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0005880812398948041</v>
+        <v>0.0006060860739198738</v>
       </c>
       <c r="V33" t="n">
-        <v>7.056974878737649e-05</v>
+        <v>7.273032887038485e-05</v>
       </c>
       <c r="W33" t="n">
-        <v>1.881859967663373e-05</v>
+        <v>1.939475436543596e-05</v>
       </c>
       <c r="X33" t="n">
-        <v>2.038681631635321e-05</v>
+        <v>2.101098389588896e-05</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.175114911074276e-05</v>
+        <v>5.333557450494889e-05</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0002336642793182021</v>
+        <v>0.0002408182000374965</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0001756402636485815</v>
+        <v>0.0001810177074107357</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0004767378584747211</v>
+        <v>0.000491333777257711</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>5.488758239018171e-05</v>
+        <v>5.656803356585489e-05</v>
       </c>
       <c r="AG33" t="n">
-        <v>4.077363263270641e-05</v>
+        <v>4.202196779177792e-05</v>
       </c>
       <c r="AH33" t="n">
-        <v>3.606898271354798e-05</v>
+        <v>3.717327920041893e-05</v>
       </c>
     </row>
     <row r="34">
@@ -3999,85 +3999,85 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0003575533938560409</v>
+        <v>0.0003685003329432833</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000594354106453682</v>
+        <v>0.0006125509920416858</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001580762372837233</v>
+        <v>0.001629159366696621</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0005394665240635002</v>
+        <v>0.0005559829584758309</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001337688793680714</v>
+        <v>0.001378643789476406</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0004673285586364043</v>
+        <v>0.0004816364000749931</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0006774695883588142</v>
+        <v>0.0006982111571556946</v>
       </c>
       <c r="J34" t="n">
-        <v>0.001751697986566656</v>
+        <v>0.001805328385515998</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0009832718331041124</v>
+        <v>0.001013375915594029</v>
       </c>
       <c r="L34" t="n">
-        <v>2.509146623551164e-05</v>
+        <v>2.585967248724795e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>0.001025613682376538</v>
+        <v>0.00105701411291626</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00110872916428167</v>
+        <v>0.001142674278030269</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0006994246213148869</v>
+        <v>0.0007208383705820365</v>
       </c>
       <c r="P34" t="n">
-        <v>0.002284891644071279</v>
+        <v>0.002354846425870016</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0007699943701022634</v>
+        <v>0.0007935686994524215</v>
       </c>
       <c r="R34" t="n">
-        <v>0.00114166171371578</v>
+        <v>0.001176615098169782</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0002838472117892254</v>
+        <v>0.0002925375450119924</v>
       </c>
       <c r="T34" t="n">
-        <v>0.002082591697547466</v>
+        <v>0.00214635281644158</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002117092463621295</v>
+        <v>0.002181909866111546</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0002462100124359579</v>
+        <v>0.0002537480362811205</v>
       </c>
       <c r="W34" t="n">
-        <v>6.429688222849857e-05</v>
+        <v>6.626541074857287e-05</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0002885518617083839</v>
+        <v>0.0002973862336033514</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.645579902990118e-05</v>
+        <v>5.818426309630789e-05</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0004924200248719159</v>
+        <v>0.000507496072562241</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.841083198597387e-05</v>
+        <v>8.081147652264984e-05</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0002164138962812879</v>
+        <v>0.0002230396752025136</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -4089,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.000174072047008862</v>
+        <v>0.0001794014778802826</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0001348666310158751</v>
+        <v>0.0001389957396189577</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0002869836450686644</v>
+        <v>0.0002957700040728984</v>
       </c>
     </row>
   </sheetData>
